--- a/web/src/main/resources/static/excel/daily.xlsx
+++ b/web/src/main/resources/static/excel/daily.xlsx
@@ -404,6 +404,24 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,9 +431,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -424,22 +439,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,7 +721,7 @@
   <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:BF1"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -730,7 +730,8 @@
     <col min="2" max="2" width="3.5" style="6" customWidth="1"/>
     <col min="3" max="14" width="3.75" style="6" customWidth="1"/>
     <col min="15" max="15" width="3.75" style="7" customWidth="1"/>
-    <col min="16" max="20" width="3.75" style="6" customWidth="1"/>
+    <col min="16" max="19" width="3.75" style="6" customWidth="1"/>
+    <col min="20" max="20" width="12" style="6" customWidth="1"/>
     <col min="21" max="21" width="3.75" style="7" customWidth="1"/>
     <col min="22" max="37" width="3.75" style="6" customWidth="1"/>
     <col min="38" max="38" width="5.625" style="6" customWidth="1"/>
@@ -1063,241 +1064,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="2" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
     </row>
     <row r="2" spans="1:63" s="2" customFormat="1" ht="26.45" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30" t="s">
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="31"/>
-      <c r="BG2" s="28" t="s">
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="28"/>
+      <c r="BH2" s="33"/>
     </row>
     <row r="3" spans="1:63" s="1" customFormat="1" ht="69" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27" t="s">
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="35"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27" t="s">
+      <c r="U3" s="29"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27" t="s">
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27" t="s">
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27" t="s">
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27" t="s">
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27" t="s">
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27" t="s">
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27" t="s">
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27" t="s">
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27" t="s">
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27" t="s">
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="29"/>
-      <c r="BH3" s="29"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="34"/>
     </row>
     <row r="4" spans="1:63" s="3" customFormat="1" ht="81" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1547,9 +1548,9 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -1582,66 +1583,66 @@
       <c r="AN6" s="14"/>
     </row>
     <row r="7" spans="1:63" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="31"/>
+      <c r="BC7" s="31"/>
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="31"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="31"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="31"/>
     </row>
     <row r="8" spans="1:63" s="5" customFormat="1" ht="15.95" customHeight="1"/>
     <row r="9" spans="1:63" s="5" customFormat="1" ht="15.95" customHeight="1">
@@ -1692,6 +1693,16 @@
     <row r="27" spans="6:10" ht="24.6" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F7:BK7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="BG2:BH3"/>
+    <mergeCell ref="BD2:BF3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="A1:BF1"/>
     <mergeCell ref="B2:AN2"/>
     <mergeCell ref="AO2:BC2"/>
@@ -1708,16 +1719,6 @@
     <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="F7:BK7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="BG2:BH3"/>
-    <mergeCell ref="BD2:BF3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="AX3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
